--- a/ex/sample.xlsx
+++ b/ex/sample.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="22548" windowHeight="8700"/>
+    <workbookView windowHeight="8700" windowWidth="22548" xWindow="0" yWindow="2448"/>
   </bookViews>
   <sheets>
-    <sheet name="raghu" sheetId="1" r:id="rId1"/>
+    <sheet name="raghu" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
@@ -42,6 +42,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,19 +82,19 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="26" name="Good" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -107,10 +108,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -268,7 +269,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -277,13 +278,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -293,7 +294,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -302,7 +303,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -311,7 +312,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -321,12 +322,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -357,7 +358,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -376,7 +377,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -388,18 +389,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>10</v>
+      <c r="A1" t="n">
+        <v>20.0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -426,6 +425,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>